--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-711686.6565299792</v>
+        <v>-714221.627405834</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13571801.17197756</v>
+        <v>13571801.17197757</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>127.6068278246521</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>142.9978312840273</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>49.7087567676349</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>23.18964139592863</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30769950814229</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>134.5301287433244</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>171.5453109346328</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>50.73003670622381</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>171.793981890001</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>51.06561173382013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>191.2490250244969</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>191.0686326199071</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347168</v>
+        <v>71.45095084163864</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>20.38427178198018</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>1.207068174442234</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>92.20984583428483</v>
       </c>
       <c r="U16" t="n">
-        <v>104.3471808964298</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.797182079703</v>
+        <v>115.7228684476123</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>162.8435308896539</v>
       </c>
       <c r="U22" t="n">
-        <v>21.3586617715068</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>113.6427030833208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>124.6209519256077</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652616</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002295</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,7 +3910,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>920.7766538636586</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>534.9884012654143</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>534.9884012654143</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2739.810011970445</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.344253709365</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4321398396066</v>
+        <v>574.4881097656722</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396066</v>
+        <v>405.5519268377653</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1882.539296060066</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1690.853411886892</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1690.853411886892</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1554.964392954241</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1300.279904748355</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1010.862734711394</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>782.8731838133765</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.0806046698464</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.526882613611</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.5643656732</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.5643656732</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>650.7761130749554</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>239.7902082853479</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653545</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.266054653545</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>1792.126722677733</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="6">
@@ -4638,25 +4638,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
         <v>234.2149530574645</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>873.6869975319821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495403</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1127.748203495403</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1127.748203495403</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
         <v>934.5673701373257</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4841,13 +4841,13 @@
         <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559525</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4875,16 +4875,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1633.355255040202</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1343.938085003241</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1343.938085003241</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1123.145505859711</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434716</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0383482155647</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>550.921708803229</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>403.0086152208358</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>256.1186677229255</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>256.1186677229255</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>114.4068365651236</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2445.743822797996</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2226.142357820936</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1937.067131165134</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015259</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.5276345711973</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2103.921287069096</v>
       </c>
       <c r="U16" t="n">
-        <v>1872.059887685832</v>
+        <v>1814.846060413294</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.375399479945</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.958229442984</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.968678544967</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y16" t="n">
-        <v>879.176099401437</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5507,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5522,40 +5522,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,16 +5586,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.3544215660705</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381636</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>2032.574130447511</v>
       </c>
       <c r="U22" t="n">
-        <v>1955.886674680705</v>
+        <v>1743.498903791709</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.202186474818</v>
+        <v>1488.814415585822</v>
       </c>
       <c r="W22" t="n">
-        <v>1411.785016437858</v>
+        <v>1199.397245548862</v>
       </c>
       <c r="X22" t="n">
-        <v>1183.79546553984</v>
+        <v>971.4076946508441</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.0028863963103</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,31 +6218,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,16 +6361,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6953,34 +6953,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,34 +7072,34 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,25 +7819,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>283.3148978288013</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>206.2431374333858</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>125.4258316222837</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.62445316190504</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.88156453658534</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>179.8192178272024</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>125.1956044930034</v>
       </c>
       <c r="U16" t="n">
-        <v>181.8372934928143</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>57.22910392194156</v>
+        <v>65.30341755403234</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>54.5619194376344</v>
       </c>
       <c r="U22" t="n">
-        <v>264.8258126177374</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>55.2110282563296</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.796340981529261e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -26320,40 +26320,40 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
+        <v>242143.9799070019</v>
+      </c>
+      <c r="F2" t="n">
         <v>242143.9799070018</v>
-      </c>
-      <c r="F2" t="n">
-        <v>242143.9799070019</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16075.56073090167</v>
+        <v>16075.56073090172</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314477</v>
@@ -26427,10 +26427,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
@@ -26439,25 +26439,25 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488704</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488699</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1245483.126894418</v>
+        <v>-1245808.4719847</v>
       </c>
       <c r="C6" t="n">
         <v>48024.52337474693</v>
       </c>
       <c r="D6" t="n">
-        <v>48024.52337474712</v>
+        <v>48024.52337474686</v>
       </c>
       <c r="E6" t="n">
-        <v>-195558.0439760544</v>
+        <v>-195592.7819014896</v>
       </c>
       <c r="F6" t="n">
-        <v>129854.4178313013</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="G6" t="n">
-        <v>129854.4178313012</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="H6" t="n">
-        <v>129854.4178313013</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="I6" t="n">
-        <v>129854.4178313011</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="J6" t="n">
-        <v>-87676.78456597617</v>
+        <v>-87711.52249141206</v>
       </c>
       <c r="K6" t="n">
-        <v>129854.4178313012</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="L6" t="n">
-        <v>129854.4178313012</v>
+        <v>129819.6799058655</v>
       </c>
       <c r="M6" t="n">
-        <v>19507.77766133884</v>
+        <v>19507.77766133881</v>
       </c>
       <c r="N6" t="n">
         <v>123990.5235904824</v>
       </c>
       <c r="O6" t="n">
-        <v>123990.5235904827</v>
+        <v>123990.5235904826</v>
       </c>
       <c r="P6" t="n">
-        <v>123990.5235904827</v>
+        <v>123990.5235904826</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26799,22 +26799,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>130.1232234143024</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>151.6817094622884</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>239.3764147188207</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>335.5079019498298</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.037998291936276</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>190.6813450477648</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>178.6624680585619</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911122</v>
+        <v>180.6866924821894</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>359.1374415194863</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,16 +32315,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998997</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
